--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF6AD20-CF4C-49B1-85BB-3470EC06D3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD1635-8D11-4DD6-B432-BB0ACECDB99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16110" yWindow="6790" windowWidth="21710" windowHeight="12260" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -444,14 +444,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シフトのガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントのガントチャート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>月の前後、シフト/イベント切替、アラート表示、ハンバーガーメニュー、</t>
     <rPh sb="0" eb="1">
       <t>ツキ</t>
@@ -515,7 +507,103 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>??</t>
+    <t>css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>style.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(JSP終わり次第取り組む)</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シダイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体のCSS(JSP終わり次第取り組む)</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントのガントチャート（画面の動きがわかったら開始）</t>
+    <rPh sb="13" eb="15">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シフトのガントチャート（画面の動きがわかったら開始）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二上</t>
+    <rPh sb="0" eb="2">
+      <t>フタガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川崎</t>
+    <rPh sb="0" eb="2">
+      <t>カワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村井</t>
+    <rPh sb="0" eb="2">
+      <t>ムライ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>梶川</t>
+    <rPh sb="0" eb="2">
+      <t>カジカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>村井/二上</t>
+    <rPh sb="0" eb="2">
+      <t>ムライ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フタガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -912,28 +1000,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -971,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -990,16 +1078,20 @@
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I3" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I3" s="3">
+        <v>45831</v>
+      </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1018,16 +1110,20 @@
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I4" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I4" s="3">
+        <v>45831</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N4" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1046,16 +1142,20 @@
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I5" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I5" s="3">
+        <v>45831</v>
+      </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N5" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1074,16 +1174,20 @@
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I6" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I6" s="3">
+        <v>45831</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N6" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1102,16 +1206,20 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I7" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I7" s="3">
+        <v>45831</v>
+      </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N7" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1127,16 +1235,20 @@
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I8" s="3">
+        <v>45831</v>
+      </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N8" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1152,16 +1264,20 @@
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I9" s="3">
+        <v>45831</v>
+      </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N9" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1177,16 +1293,20 @@
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I10" s="3">
+        <v>45831</v>
+      </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1202,16 +1322,20 @@
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I11" s="1"/>
+        <v>45827</v>
+      </c>
+      <c r="I11" s="3">
+        <v>45831</v>
+      </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N11" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1220,7 +1344,7 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="3"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1228,7 +1352,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1243,15 +1367,21 @@
         <v>28</v>
       </c>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I13" s="3">
+        <v>45834</v>
+      </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N13" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1266,15 +1396,21 @@
         <v>29</v>
       </c>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45834</v>
+      </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N14" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1289,15 +1425,21 @@
         <v>30</v>
       </c>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="H15" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I15" s="3">
+        <v>45834</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N15" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1312,15 +1454,21 @@
         <v>31</v>
       </c>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I16" s="3">
+        <v>45834</v>
+      </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N16" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1337,7 +1485,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1352,15 +1500,21 @@
         <v>34</v>
       </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45832</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N18" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1375,15 +1529,21 @@
         <v>35</v>
       </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45832</v>
+      </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1395,20 +1555,24 @@
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+        <v>78</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45832</v>
+      </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1423,15 +1587,21 @@
         <v>36</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45832</v>
+      </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N21" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1446,15 +1616,21 @@
         <v>37</v>
       </c>
       <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45832</v>
+      </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N22" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1471,7 +1647,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1488,15 +1664,21 @@
       <c r="G24" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I24" s="3">
+        <v>45827</v>
+      </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N24" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1513,15 +1695,21 @@
       <c r="G25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I25" s="3">
+        <v>45827</v>
+      </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N25" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1538,15 +1726,21 @@
       <c r="G26" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
+      <c r="H26" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I26" s="3">
+        <v>45827</v>
+      </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N26" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1563,15 +1757,21 @@
       <c r="G27" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I27" s="3">
+        <v>45827</v>
+      </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N27" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1588,15 +1788,21 @@
       <c r="G28" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I28" s="3">
+        <v>45827</v>
+      </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N28" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1613,15 +1819,21 @@
       <c r="G29" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I29" s="3">
+        <v>45827</v>
+      </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N29" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1638,15 +1850,21 @@
       <c r="G30" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I30" s="3">
+        <v>45827</v>
+      </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N30" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1663,15 +1881,21 @@
       <c r="G31" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I31" s="3">
+        <v>45827</v>
+      </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N31" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1688,15 +1912,21 @@
       <c r="G32" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I32" s="3">
+        <v>45827</v>
+      </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N32" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1713,15 +1943,21 @@
       <c r="G33" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
+      <c r="H33" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I33" s="3">
+        <v>45827</v>
+      </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1738,15 +1974,21 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I34" s="3">
+        <v>45827</v>
+      </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N34" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1763,7 +2005,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1776,17 +2018,23 @@
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="H36" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I36" s="3">
+        <v>45833</v>
+      </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N36" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1799,17 +2047,23 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45833</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N37" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1822,17 +2076,23 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
+        <v>84</v>
+      </c>
+      <c r="H38" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I38" s="3">
+        <v>45833</v>
+      </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1849,277 +2109,359 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I40" s="3">
+        <v>45835</v>
+      </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N40" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="D41" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45835</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
+      <c r="H42" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I42" s="3">
+        <v>45835</v>
+      </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N42" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I43" s="3">
+        <v>45835</v>
+      </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N43" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I44" s="3">
+        <v>45835</v>
+      </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N44" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H45" s="3">
+        <v>45827</v>
+      </c>
+      <c r="I45" s="3">
+        <v>45835</v>
+      </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N45" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I46" s="3">
+        <v>45835</v>
+      </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N46" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I47" s="3">
+        <v>45835</v>
+      </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N47" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I48" s="3">
+        <v>45835</v>
+      </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N48" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
+      <c r="H49" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I49" s="3">
+        <v>45835</v>
+      </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I50" s="3">
+        <v>45835</v>
+      </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N50" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
+      <c r="D51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H51" s="3">
+        <v>45827</v>
+      </c>
+      <c r="I51" s="3">
+        <v>45835</v>
+      </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+      <c r="N51" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2136,7 +2478,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2153,7 +2495,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2170,7 +2512,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2187,7 +2529,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2204,7 +2546,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2221,7 +2563,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2238,7 +2580,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2255,7 +2597,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2285,12 +2627,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2461,6 +2797,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2471,23 +2813,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2506,6 +2831,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD1635-8D11-4DD6-B432-BB0ACECDB99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F605C49-17F1-4AB5-82A9-173350C296F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1000,28 +1000,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1277,7 +1277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1306,7 +1306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1335,7 +1335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1352,7 +1352,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1410,7 +1410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1439,7 +1439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1468,7 +1468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1485,7 +1485,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1514,7 +1514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1543,7 +1543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1572,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1601,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1630,7 +1630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1647,7 +1647,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1678,7 +1678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1709,7 +1709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1740,7 +1740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1771,7 +1771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1802,7 +1802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1833,7 +1833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1864,7 +1864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1895,7 +1895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1926,7 +1926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1988,7 +1988,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2005,7 +2005,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2034,7 +2034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2063,7 +2063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2092,7 +2092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2109,7 +2109,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2138,7 +2138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2167,7 +2167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2196,7 +2196,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2225,7 +2225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2254,7 +2254,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2285,7 +2285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2314,7 +2314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2343,7 +2343,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2372,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2401,7 +2401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2430,7 +2430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2461,7 +2461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2478,7 +2478,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2495,7 +2495,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2512,7 +2512,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2529,7 +2529,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2546,7 +2546,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2563,7 +2563,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2580,7 +2580,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2597,7 +2597,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2627,6 +2627,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2797,12 +2803,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2813,6 +2813,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2831,23 +2848,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F605C49-17F1-4AB5-82A9-173350C296F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90D2962-DABC-41D0-ADE4-A73D5FF5046F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="10575" yWindow="3765" windowWidth="28770" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1672,7 +1672,9 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>80</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
         <v>85</v>
@@ -1703,7 +1705,9 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>30</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
         <v>87</v>
@@ -1734,7 +1738,9 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>30</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>87</v>
@@ -1765,7 +1771,9 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>10</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
         <v>88</v>
@@ -1796,7 +1804,9 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>10</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
         <v>88</v>
@@ -1827,7 +1837,9 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <v>10</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
         <v>85</v>
@@ -1858,7 +1870,9 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>50</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
         <v>89</v>
@@ -1889,7 +1903,9 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
         <v>89</v>
@@ -1920,7 +1936,9 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>80</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
         <v>86</v>
@@ -1951,7 +1969,9 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>50</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
         <v>86</v>
@@ -1982,7 +2002,9 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>0</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
         <v>86</v>
@@ -2627,12 +2649,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2803,6 +2819,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2813,23 +2835,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2848,6 +2853,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DAD1635-8D11-4DD6-B432-BB0ACECDB99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C990F-38EB-495A-9454-DBBD17F771C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,28 +1000,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J52" sqref="J52"/>
+    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1123,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1187,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1219,7 +1219,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1248,7 +1248,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1277,7 +1277,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1306,7 +1306,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1335,7 +1335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1352,7 +1352,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1381,7 +1381,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1410,7 +1410,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1439,7 +1439,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1468,7 +1468,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1485,7 +1485,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1514,7 +1514,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1543,7 +1543,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1572,7 +1572,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1601,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1630,7 +1630,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1647,7 +1647,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1678,7 +1678,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1709,7 +1709,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1740,7 +1740,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1771,7 +1771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1802,7 +1802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1833,7 +1833,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1864,7 +1864,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1895,7 +1895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1926,7 +1926,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1957,7 +1957,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1988,7 +1988,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2005,7 +2005,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2034,7 +2034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2063,7 +2063,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2092,7 +2092,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2109,7 +2109,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2138,7 +2138,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2167,7 +2167,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2196,7 +2196,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2225,7 +2225,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2254,7 +2254,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2285,7 +2285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2314,7 +2314,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2343,7 +2343,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2372,7 +2372,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2401,7 +2401,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2430,7 +2430,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2461,7 +2461,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2478,7 +2478,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2495,7 +2495,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2512,7 +2512,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2529,7 +2529,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2546,7 +2546,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2563,7 +2563,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2580,7 +2580,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2597,7 +2597,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2627,6 +2627,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2797,12 +2803,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2813,6 +2813,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2831,23 +2848,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{981C990F-38EB-495A-9454-DBBD17F771C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995C7D7-C3CC-46AD-9B92-6891B5095704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -998,30 +998,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:N60"/>
+  <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1085,13 +1085,15 @@
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1">
+        <v>90</v>
+      </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1123,7 +1125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1155,7 +1157,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1213,13 +1215,15 @@
       </c>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1">
+        <v>5</v>
+      </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1248,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1277,7 +1281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1306,7 +1310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1329,13 +1333,15 @@
       </c>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1">
+        <v>10</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1352,7 +1358,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1375,13 +1381,15 @@
       </c>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1">
+        <v>0</v>
+      </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1404,13 +1412,15 @@
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
+      <c r="L14" s="1">
+        <v>10</v>
+      </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1433,13 +1443,15 @@
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
+      <c r="L15" s="1">
+        <v>60</v>
+      </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1462,13 +1474,15 @@
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
+      <c r="L16" s="1">
+        <v>0</v>
+      </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1485,7 +1499,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1508,13 +1522,19 @@
       </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1">
+        <v>100</v>
+      </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="P18">
+        <f>SUM(L3:L51)</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1537,13 +1557,15 @@
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1">
+        <v>100</v>
+      </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1566,13 +1588,15 @@
       </c>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1">
+        <v>100</v>
+      </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1595,13 +1619,15 @@
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1">
+        <v>100</v>
+      </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1624,13 +1650,15 @@
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1">
+        <v>100</v>
+      </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1647,7 +1675,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1672,13 +1700,15 @@
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1">
+        <v>80</v>
+      </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1703,13 +1733,15 @@
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1">
+        <v>50</v>
+      </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1734,13 +1766,15 @@
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1">
+        <v>50</v>
+      </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1765,13 +1799,15 @@
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1">
+        <v>30</v>
+      </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1796,13 +1832,15 @@
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1">
+        <v>30</v>
+      </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1827,13 +1865,15 @@
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="L29" s="1">
+        <v>30</v>
+      </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1858,13 +1898,15 @@
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="L30" s="1">
+        <v>55</v>
+      </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1889,13 +1931,15 @@
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="1">
+        <v>0</v>
+      </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1920,13 +1964,15 @@
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="L32" s="1">
+        <v>50</v>
+      </c>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1951,13 +1997,15 @@
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="L33" s="1">
+        <v>50</v>
+      </c>
       <c r="M33" s="1"/>
       <c r="N33" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1982,13 +2030,15 @@
       </c>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="L34" s="1">
+        <v>50</v>
+      </c>
       <c r="M34" s="1"/>
       <c r="N34" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2005,7 +2055,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2034,7 +2084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2063,7 +2113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2092,7 +2142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2109,7 +2159,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2138,7 +2188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2167,7 +2217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2196,7 +2246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2225,7 +2275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2254,7 +2304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2285,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2314,7 +2364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2343,7 +2393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2372,7 +2422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2401,7 +2451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2430,7 +2480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2461,7 +2511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2478,7 +2528,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2495,7 +2545,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2512,7 +2562,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2529,7 +2579,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2546,7 +2596,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2563,7 +2613,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2580,7 +2630,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2597,7 +2647,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2627,12 +2677,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2803,6 +2847,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2813,23 +2863,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2848,6 +2881,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995C7D7-C3CC-46AD-9B92-6891B5095704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{965FABA1-819F-4FB3-9744-BB5E5A576A4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="252" yWindow="2220" windowWidth="17280" windowHeight="9960" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,28 +1000,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1093,7 +1093,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1252,7 +1252,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1281,7 +1281,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1310,7 +1310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1341,7 +1341,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1358,7 +1358,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1389,7 +1389,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1420,7 +1420,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1451,7 +1451,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1482,7 +1482,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1499,7 +1499,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1534,7 +1534,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1565,7 +1565,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1596,7 +1596,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1627,7 +1627,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1658,7 +1658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1675,7 +1675,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1708,7 +1708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1741,7 +1741,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1774,7 +1774,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1807,7 +1807,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1840,7 +1840,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1873,7 +1873,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1906,7 +1906,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1939,7 +1939,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1972,7 +1972,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2005,7 +2005,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2038,7 +2038,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2055,7 +2055,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2084,7 +2084,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2113,7 +2113,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2142,7 +2142,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2159,7 +2159,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2188,7 +2188,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2217,7 +2217,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2246,7 +2246,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2275,7 +2275,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2304,7 +2304,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2335,7 +2335,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2364,7 +2364,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2393,7 +2393,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2422,7 +2422,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2451,7 +2451,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2480,7 +2480,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2511,7 +2511,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2528,7 +2528,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2545,7 +2545,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2562,7 +2562,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2579,7 +2579,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2596,7 +2596,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2613,7 +2613,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2630,7 +2630,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2647,7 +2647,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2677,6 +2677,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2847,12 +2853,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2863,6 +2863,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2881,23 +2898,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C995C7D7-C3CC-46AD-9B92-6891B5095704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0C8C7-BE83-4B4B-8BA7-1EBC3C75485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="57930" windowHeight="32010" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1183,7 +1183,9 @@
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1" t="s">
         <v>86</v>
@@ -1216,7 +1218,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1" t="s">
@@ -1334,7 +1336,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1" t="s">
@@ -1382,7 +1384,7 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1" t="s">
@@ -1413,7 +1415,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
@@ -1475,7 +1477,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
@@ -1531,7 +1533,7 @@
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
-        <v>1150</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.4">
@@ -1734,7 +1736,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1" t="s">
@@ -1767,7 +1769,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
@@ -2677,6 +2679,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2847,12 +2855,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2863,6 +2865,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2881,23 +2900,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD0C8C7-BE83-4B4B-8BA7-1EBC3C75485C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0A748-928C-4A25-9CE3-EFB0D0D727FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-165" yWindow="-165" windowWidth="57930" windowHeight="32010" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="11640" yWindow="7200" windowWidth="36900" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$26</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1086,9 +1086,11 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <v>90</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>95</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="1" t="s">
         <v>85</v>
       </c>
@@ -1119,8 +1121,12 @@
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1">
+        <v>60</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N4" s="1" t="s">
         <v>86</v>
       </c>
@@ -1151,8 +1157,12 @@
       </c>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="1">
+        <v>30</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="1" t="s">
         <v>86</v>
       </c>
@@ -1184,9 +1194,11 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>1</v>
-      </c>
-      <c r="M6" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="1" t="s">
         <v>86</v>
       </c>
@@ -1218,9 +1230,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>10</v>
-      </c>
-      <c r="M7" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N7" s="1" t="s">
         <v>87</v>
       </c>
@@ -1248,8 +1262,12 @@
       </c>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+      <c r="L8" s="1">
+        <v>30</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N8" s="1" t="s">
         <v>88</v>
       </c>
@@ -1277,8 +1295,12 @@
       </c>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+      <c r="L9" s="1">
+        <v>30</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N9" s="1" t="s">
         <v>88</v>
       </c>
@@ -1336,9 +1358,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>15</v>
-      </c>
-      <c r="M11" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N11" s="1" t="s">
         <v>89</v>
       </c>
@@ -1384,9 +1408,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1">
-        <v>50</v>
-      </c>
-      <c r="M13" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N13" s="1" t="s">
         <v>86</v>
       </c>
@@ -1415,9 +1441,11 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>20</v>
-      </c>
-      <c r="M14" s="1"/>
+        <v>60</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N14" s="1" t="s">
         <v>90</v>
       </c>
@@ -1446,9 +1474,11 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>60</v>
-      </c>
-      <c r="M15" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
@@ -1477,9 +1507,11 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <v>15</v>
-      </c>
-      <c r="M16" s="1"/>
+        <v>75</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N16" s="1" t="s">
         <v>89</v>
       </c>
@@ -1527,13 +1559,15 @@
       <c r="L18" s="1">
         <v>100</v>
       </c>
-      <c r="M18" s="1"/>
+      <c r="M18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
-        <v>1256</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.4">
@@ -1562,7 +1596,9 @@
       <c r="L19" s="1">
         <v>100</v>
       </c>
-      <c r="M19" s="1"/>
+      <c r="M19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N19" s="1" t="s">
         <v>85</v>
       </c>
@@ -1593,7 +1629,9 @@
       <c r="L20" s="1">
         <v>100</v>
       </c>
-      <c r="M20" s="1"/>
+      <c r="M20" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N20" s="1" t="s">
         <v>85</v>
       </c>
@@ -1624,7 +1662,9 @@
       <c r="L21" s="1">
         <v>100</v>
       </c>
-      <c r="M21" s="1"/>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N21" s="1" t="s">
         <v>85</v>
       </c>
@@ -1655,7 +1695,9 @@
       <c r="L22" s="1">
         <v>100</v>
       </c>
-      <c r="M22" s="1"/>
+      <c r="M22" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N22" s="1" t="s">
         <v>85</v>
       </c>
@@ -1705,7 +1747,9 @@
       <c r="L24" s="1">
         <v>80</v>
       </c>
-      <c r="M24" s="1"/>
+      <c r="M24" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N24" s="1" t="s">
         <v>85</v>
       </c>
@@ -1736,9 +1780,11 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>60</v>
-      </c>
-      <c r="M25" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N25" s="1" t="s">
         <v>87</v>
       </c>
@@ -1769,9 +1815,11 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>60</v>
-      </c>
-      <c r="M26" s="1"/>
+        <v>65</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N26" s="1" t="s">
         <v>87</v>
       </c>
@@ -1804,7 +1852,9 @@
       <c r="L27" s="1">
         <v>30</v>
       </c>
-      <c r="M27" s="1"/>
+      <c r="M27" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N27" s="1" t="s">
         <v>88</v>
       </c>
@@ -1837,7 +1887,9 @@
       <c r="L28" s="1">
         <v>30</v>
       </c>
-      <c r="M28" s="1"/>
+      <c r="M28" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N28" s="1" t="s">
         <v>88</v>
       </c>
@@ -1870,7 +1922,9 @@
       <c r="L29" s="1">
         <v>30</v>
       </c>
-      <c r="M29" s="1"/>
+      <c r="M29" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N29" s="1" t="s">
         <v>85</v>
       </c>
@@ -1903,7 +1957,9 @@
       <c r="L30" s="1">
         <v>55</v>
       </c>
-      <c r="M30" s="1"/>
+      <c r="M30" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N30" s="1" t="s">
         <v>89</v>
       </c>
@@ -1934,9 +1990,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>0</v>
-      </c>
-      <c r="M31" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N31" s="1" t="s">
         <v>89</v>
       </c>
@@ -1969,7 +2027,9 @@
       <c r="L32" s="1">
         <v>50</v>
       </c>
-      <c r="M32" s="1"/>
+      <c r="M32" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N32" s="1" t="s">
         <v>86</v>
       </c>
@@ -2002,7 +2062,9 @@
       <c r="L33" s="1">
         <v>50</v>
       </c>
-      <c r="M33" s="1"/>
+      <c r="M33" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N33" s="1" t="s">
         <v>86</v>
       </c>
@@ -2035,7 +2097,9 @@
       <c r="L34" s="1">
         <v>50</v>
       </c>
-      <c r="M34" s="1"/>
+      <c r="M34" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N34" s="1" t="s">
         <v>86</v>
       </c>
@@ -2081,7 +2145,9 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N36" s="1" t="s">
         <v>91</v>
       </c>
@@ -2110,7 +2176,9 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N37" s="1" t="s">
         <v>91</v>
       </c>
@@ -2139,7 +2207,9 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N38" s="1" t="s">
         <v>91</v>
       </c>
@@ -2185,7 +2255,9 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N40" s="1" t="s">
         <v>85</v>
       </c>
@@ -2214,7 +2286,9 @@
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N41" s="1" t="s">
         <v>87</v>
       </c>
@@ -2243,7 +2317,9 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N42" s="1" t="s">
         <v>87</v>
       </c>
@@ -2272,7 +2348,9 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N43" s="1" t="s">
         <v>88</v>
       </c>
@@ -2301,7 +2379,9 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N44" s="1" t="s">
         <v>88</v>
       </c>
@@ -2332,7 +2412,9 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N45" s="1" t="s">
         <v>89</v>
       </c>
@@ -2361,7 +2443,9 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N46" s="1" t="s">
         <v>89</v>
       </c>
@@ -2390,7 +2474,9 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N47" s="1" t="s">
         <v>89</v>
       </c>
@@ -2418,8 +2504,12 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="L48" s="1">
+        <v>50</v>
+      </c>
+      <c r="M48" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N48" s="1" t="s">
         <v>86</v>
       </c>
@@ -2447,8 +2537,12 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="L49" s="1">
+        <v>50</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N49" s="1" t="s">
         <v>86</v>
       </c>
@@ -2476,8 +2570,12 @@
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="L50" s="1">
+        <v>50</v>
+      </c>
+      <c r="M50" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N50" s="1" t="s">
         <v>86</v>
       </c>
@@ -2508,7 +2606,9 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="N51" s="1" t="s">
         <v>89</v>
       </c>
@@ -2667,7 +2767,7 @@
       <c r="N60" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N26" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M60" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -2675,16 +2775,11 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2855,6 +2950,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2865,23 +2966,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2900,6 +2984,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B0A748-928C-4A25-9CE3-EFB0D0D727FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95064AE-5B43-4ED0-ADA0-A1165BE7FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11640" yWindow="7200" windowWidth="36900" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="20100" yWindow="8040" windowWidth="36900" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2780,6 +2781,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2950,12 +2957,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2966,6 +2967,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2984,23 +3002,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D95064AE-5B43-4ED0-ADA0-A1165BE7FFBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A5789-F691-4572-B824-841E67C11779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20100" yWindow="8040" windowWidth="36900" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="10500" yWindow="8085" windowWidth="28770" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$60</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -604,6 +603,82 @@
     <t>全員</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>やばい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPおわらんとやばい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>JSPが終われば行ける</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>誰かに頼みたいかも</t>
+    <rPh sb="0" eb="1">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>終わった人</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>shift.eventのJSPからパクりたい23日まで</t>
+    <rPh sb="24" eb="25">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【23日まで】進みそう</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【23日まで】進みそう</t>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【23日まで】ガントチャート出せない、おわらんかも</t>
+    <rPh sb="14" eb="15">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>いったん保留</t>
+    <rPh sb="4" eb="6">
+      <t>ホリュウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1001,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1017,12 +1092,12 @@
     <col min="14" max="14" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1060,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1096,7 +1171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1132,7 +1207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1167,8 +1242,11 @@
       <c r="N5" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1203,8 +1281,11 @@
       <c r="N6" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O6" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1240,7 +1321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1272,8 +1353,11 @@
       <c r="N8" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1306,7 +1390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1335,7 +1419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1368,7 +1452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1385,7 +1469,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1418,7 +1502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1442,7 +1526,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>13</v>
@@ -1451,7 +1535,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1484,7 +1568,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1568,7 +1652,7 @@
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
-        <v>1790</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.4">
@@ -1789,6 +1873,9 @@
       <c r="N25" s="1" t="s">
         <v>87</v>
       </c>
+      <c r="O25" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="26" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
@@ -1859,6 +1946,9 @@
       <c r="N27" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="O27" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="28" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
@@ -1894,6 +1984,9 @@
       <c r="N28" s="1" t="s">
         <v>88</v>
       </c>
+      <c r="O28" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="29" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
@@ -1929,6 +2022,9 @@
       <c r="N29" s="1" t="s">
         <v>85</v>
       </c>
+      <c r="O29" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
@@ -2034,8 +2130,11 @@
       <c r="N32" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="O32" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2069,8 +2168,11 @@
       <c r="N33" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="O33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2104,8 +2206,11 @@
       <c r="N34" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="O34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2122,7 +2227,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2153,7 +2258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2184,7 +2289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2215,7 +2320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2232,7 +2337,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2262,8 +2367,11 @@
       <c r="N40" s="1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="O40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2294,7 +2402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2325,7 +2433,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2353,10 +2461,13 @@
         <v>12</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="O43" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2384,10 +2495,13 @@
         <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2420,7 +2534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2451,7 +2565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2482,7 +2596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2781,12 +2895,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -2957,6 +3065,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -2967,23 +3081,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3002,6 +3099,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9A5789-F691-4572-B824-841E67C11779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFC85D-5B1D-45B3-813D-8525B96A1C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10500" yWindow="8085" windowWidth="28770" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="28380" yWindow="225" windowWidth="28770" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1074,10 +1074,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="P18" sqref="P18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1135,7 +1136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1207,7 +1208,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1246,7 +1247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1357,7 +1358,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1390,7 +1391,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1419,7 +1420,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1452,7 +1453,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1469,7 +1470,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1502,7 +1503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1559,16 +1560,16 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1601,7 +1602,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1618,7 +1619,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1652,10 +1653,10 @@
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
-        <v>1810</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1688,7 +1689,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1721,7 +1722,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1754,7 +1755,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1787,7 +1788,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1804,7 +1805,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1912,7 +1913,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1950,7 +1951,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1988,7 +1989,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2026,7 +2027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2061,7 +2062,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2096,7 +2097,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2134,7 +2135,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2172,7 +2173,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2210,7 +2211,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2227,7 +2228,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2258,7 +2259,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2289,7 +2290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2320,7 +2321,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2337,7 +2338,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2433,7 +2434,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2467,7 +2468,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2501,7 +2502,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2534,7 +2535,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2565,7 +2566,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2596,7 +2597,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2629,7 +2630,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2662,7 +2663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2695,7 +2696,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2728,7 +2729,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2745,7 +2746,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2762,7 +2763,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2779,7 +2780,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2796,7 +2797,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2813,7 +2814,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2830,7 +2831,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2847,7 +2848,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2864,7 +2865,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2882,7 +2883,13 @@
       <c r="N60" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="青木"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M60" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -2895,6 +2902,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3065,12 +3078,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3081,6 +3088,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3099,23 +3123,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CFC85D-5B1D-45B3-813D-8525B96A1C5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA716E21-612D-4EE9-9A20-E53BDD1C2298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28380" yWindow="225" windowWidth="28770" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-105" yWindow="15840" windowWidth="29010" windowHeight="15945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1074,7 +1074,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:P60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
@@ -1136,7 +1135,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1208,7 +1207,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1247,7 +1246,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1322,7 +1321,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1358,7 +1357,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1391,7 +1390,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1420,7 +1419,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1453,7 +1452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1470,7 +1469,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1503,7 +1502,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1569,7 +1568,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1602,7 +1601,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="17" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1619,7 +1618,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1656,7 +1655,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="19" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1689,7 +1688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1722,7 +1721,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1755,7 +1754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1788,7 +1787,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1805,7 +1804,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1913,7 +1912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1951,7 +1950,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1989,7 +1988,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2027,7 +2026,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2062,7 +2061,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2097,7 +2096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:16" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2135,7 +2134,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2173,7 +2172,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2211,7 +2210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2228,7 +2227,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2259,7 +2258,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2290,7 +2289,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2321,7 +2320,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2338,7 +2337,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2434,7 +2433,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2468,7 +2467,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2502,7 +2501,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2535,7 +2534,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2566,7 +2565,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2597,7 +2596,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2630,7 +2629,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2663,7 +2662,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2696,7 +2695,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2729,7 +2728,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2746,7 +2745,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2763,7 +2762,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2780,7 +2779,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2797,7 +2796,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2814,7 +2813,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2831,7 +2830,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2848,7 +2847,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2865,7 +2864,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2883,13 +2882,7 @@
       <c r="N60" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="青木"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M60" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -2902,12 +2895,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3078,6 +3065,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3088,23 +3081,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3123,6 +3099,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA716E21-612D-4EE9-9A20-E53BDD1C2298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F31CC1-D182-401E-86AD-B45A840F4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="15840" windowWidth="29010" windowHeight="15945" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="900" yWindow="2310" windowWidth="56670" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1234,7 +1234,7 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>13</v>
@@ -1273,7 +1273,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>13</v>
@@ -1312,7 +1312,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
@@ -1413,8 +1413,12 @@
       </c>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+      <c r="L10" s="1">
+        <v>20</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="N10" s="1" t="s">
         <v>85</v>
       </c>
@@ -1443,7 +1447,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
@@ -1526,7 +1530,7 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>13</v>
@@ -1652,7 +1656,7 @@
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
-        <v>1830</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="19" spans="3:16" x14ac:dyDescent="0.4">
@@ -1830,7 +1834,7 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>13</v>
@@ -1865,7 +1869,7 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>13</v>
@@ -1903,7 +1907,7 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>13</v>
@@ -1938,7 +1942,7 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>13</v>
@@ -1976,7 +1980,7 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>13</v>
@@ -2052,7 +2056,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
@@ -2087,7 +2091,7 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>13</v>
@@ -2394,9 +2398,11 @@
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
+      <c r="L41" s="1">
+        <v>30</v>
+      </c>
       <c r="M41" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N41" s="1" t="s">
         <v>87</v>
@@ -2425,7 +2431,9 @@
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
+      <c r="L42" s="1">
+        <v>30</v>
+      </c>
       <c r="M42" s="1" t="s">
         <v>12</v>
       </c>
@@ -2895,6 +2903,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3065,12 +3079,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3081,6 +3089,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3099,23 +3124,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F31CC1-D182-401E-86AD-B45A840F4159}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F58D0-D64B-4C09-8072-9027A3CD0F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="2310" windowWidth="56670" windowHeight="17250" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -490,15 +490,6 @@
     <t>baito_manual.css</t>
   </si>
   <si>
-    <t>tencho_user_reg.css</t>
-  </si>
-  <si>
-    <t>tencho_user_edit.css</t>
-  </si>
-  <si>
-    <t>baito_pw_change.css</t>
-  </si>
-  <si>
     <t>webapp/css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -680,6 +671,18 @@
     <rPh sb="4" eb="6">
       <t>ホリュウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tencho_user_reg.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tencho_user_edit.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>baito_pw_change.css</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1076,28 +1079,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:P60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="14" max="14" width="16.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1168,10 +1171,10 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1204,10 +1207,10 @@
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1240,13 +1243,13 @@
         <v>13</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1279,13 +1282,13 @@
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1318,10 +1321,10 @@
         <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1351,13 +1354,13 @@
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1387,10 +1390,10 @@
         <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1420,10 +1423,10 @@
         <v>13</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1453,10 +1456,10 @@
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1473,7 +1476,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1503,10 +1506,10 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1536,10 +1539,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1569,10 +1572,10 @@
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1602,10 +1605,10 @@
         <v>13</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1622,7 +1625,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1652,14 +1655,14 @@
         <v>15</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P18">
         <f>SUM(L3:L51)</f>
         <v>2120</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1689,10 +1692,10 @@
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1704,7 +1707,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="3">
@@ -1722,10 +1725,10 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1755,10 +1758,10 @@
         <v>15</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1788,10 +1791,10 @@
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1808,7 +1811,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1840,10 +1843,10 @@
         <v>13</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1875,13 +1878,13 @@
         <v>13</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O25" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1913,10 +1916,10 @@
         <v>13</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1948,13 +1951,13 @@
         <v>13</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O27" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1986,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.4">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2024,13 +2027,13 @@
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.4">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2062,10 +2065,10 @@
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2097,10 +2100,10 @@
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2132,13 +2135,13 @@
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O32" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2170,13 +2173,13 @@
         <v>13</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2208,13 +2211,13 @@
         <v>13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O34" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2231,7 +2234,7 @@
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2259,10 +2262,10 @@
         <v>12</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2275,7 +2278,7 @@
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H37" s="3">
         <v>45831</v>
@@ -2290,10 +2293,10 @@
         <v>12</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2306,7 +2309,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H38" s="3">
         <v>45831</v>
@@ -2321,10 +2324,10 @@
         <v>12</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2341,7 +2344,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2350,7 +2353,7 @@
         <v>65</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>66</v>
@@ -2369,13 +2372,13 @@
         <v>12</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="O40" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2384,7 +2387,7 @@
         <v>65</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>67</v>
@@ -2405,10 +2408,10 @@
         <v>13</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2417,7 +2420,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>68</v>
@@ -2438,10 +2441,10 @@
         <v>12</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2450,7 +2453,7 @@
         <v>65</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>69</v>
@@ -2469,13 +2472,13 @@
         <v>12</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2484,7 +2487,7 @@
         <v>65</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>70</v>
@@ -2503,13 +2506,13 @@
         <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2518,13 +2521,13 @@
         <v>65</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>71</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H45" s="3">
         <v>45827</v>
@@ -2539,10 +2542,10 @@
         <v>12</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2551,7 +2554,7 @@
         <v>65</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>72</v>
@@ -2570,10 +2573,10 @@
         <v>12</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2582,7 +2585,7 @@
         <v>65</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>73</v>
@@ -2601,10 +2604,10 @@
         <v>12</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.45">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2613,10 +2616,10 @@
         <v>65</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3">
@@ -2634,10 +2637,10 @@
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2646,10 +2649,10 @@
         <v>65</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3">
@@ -2667,10 +2670,10 @@
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2679,10 +2682,10 @@
         <v>65</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2700,25 +2703,25 @@
         <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="H51" s="3">
         <v>45827</v>
@@ -2733,10 +2736,10 @@
         <v>12</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2753,7 +2756,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2770,7 +2773,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2787,7 +2790,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2804,7 +2807,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2821,7 +2824,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2838,7 +2841,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2855,7 +2858,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2872,7 +2875,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2903,12 +2906,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3079,6 +3076,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3089,23 +3092,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3124,6 +3110,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB0F58D0-D64B-4C09-8072-9027A3CD0F2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF96B87F-0993-45BD-9471-752B4D79A624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="330" yWindow="1035" windowWidth="57600" windowHeight="25605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$62</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -683,6 +683,42 @@
   </si>
   <si>
     <t>baito_pw_change.css</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalEvent.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CalShift.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青木</t>
+    <rPh sb="0" eb="2">
+      <t>アオキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最大で</t>
+    <rPh sb="0" eb="2">
+      <t>サイダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>現在は</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進捗率は</t>
+    <rPh sb="0" eb="3">
+      <t>シンチョクリツ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -690,7 +726,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -701,6 +737,14 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -745,12 +789,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,8 +810,12 @@
     <xf numFmtId="56" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1077,30 +1128,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F36" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.09765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.09765625" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1138,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1173,13 +1225,19 @@
       <c r="N3" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q3" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C60" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C62" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1209,8 +1267,15 @@
       <c r="N4" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R4" s="1">
+        <f>SUM(L3:L53)</f>
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1248,8 +1313,15 @@
       <c r="O5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="Q5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="R5" s="4">
+        <f>(R4/R3)</f>
+        <v>0.56086956521739129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1288,7 +1360,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1396,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1360,7 +1432,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1393,7 +1465,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1426,7 +1498,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1459,7 +1531,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1476,7 +1548,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1509,7 +1581,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1542,7 +1614,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1575,7 +1647,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1608,7 +1680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1625,7 +1697,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1657,12 +1729,8 @@
       <c r="N18" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="P18">
-        <f>SUM(L3:L51)</f>
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.45">
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1695,7 +1763,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1728,7 +1796,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1761,7 +1829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1794,97 +1862,82 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.45">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>102</v>
+      </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="L23" s="1">
+        <v>100</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H24" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I24" s="3">
-        <v>45827</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I25" s="3">
-        <v>45827</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1">
-        <v>75</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O25" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.45">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1896,10 +1949,10 @@
         <v>50</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H26" s="3">
         <v>45825</v>
@@ -1910,16 +1963,16 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1931,10 +1984,10 @@
         <v>50</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H27" s="3">
         <v>45825</v>
@@ -1945,19 +1998,19 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1969,10 +2022,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H28" s="3">
         <v>45825</v>
@@ -1983,19 +2036,16 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="O28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2007,10 +2057,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H29" s="3">
         <v>45825</v>
@@ -2021,19 +2071,19 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="O29" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2045,10 +2095,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H30" s="3">
         <v>45825</v>
@@ -2059,16 +2109,19 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.45">
+        <v>85</v>
+      </c>
+      <c r="O30" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2080,10 +2133,10 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H31" s="3">
         <v>45825</v>
@@ -2094,16 +2147,19 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="O31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2115,10 +2171,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H32" s="3">
         <v>45825</v>
@@ -2129,19 +2185,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O32" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2153,10 +2206,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H33" s="3">
         <v>45825</v>
@@ -2167,19 +2220,16 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O33" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2191,10 +2241,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H34" s="3">
         <v>45825</v>
@@ -2217,86 +2267,100 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H35" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I35" s="3">
+        <v>45827</v>
+      </c>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="L35" s="1">
+        <v>50</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G36" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H36" s="3">
-        <v>45831</v>
+        <v>45825</v>
       </c>
       <c r="I36" s="3">
-        <v>45833</v>
+        <v>45827</v>
       </c>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+      <c r="L36" s="1">
+        <v>50</v>
+      </c>
       <c r="M36" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+      <c r="O36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1"/>
-      <c r="G37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H37" s="3">
-        <v>45831</v>
-      </c>
-      <c r="I37" s="3">
-        <v>45833</v>
-      </c>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2309,7 +2373,7 @@
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="H38" s="3">
         <v>45831</v>
@@ -2327,43 +2391,57 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="D39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
+      <c r="G39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H39" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I39" s="3">
+        <v>45833</v>
+      </c>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="M39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N39" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="H40" s="3">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="I40" s="3">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
@@ -2372,46 +2450,27 @@
         <v>12</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="O40" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="3">
-        <v>45834</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45835</v>
-      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
-      <c r="L41" s="1">
-        <v>30</v>
-      </c>
-      <c r="M41" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.45">
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2423,7 +2482,7 @@
         <v>74</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="3">
@@ -2435,16 +2494,19 @@
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+      <c r="O42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2456,7 +2518,7 @@
         <v>74</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G43" s="1"/>
       <c r="H43" s="3">
@@ -2467,18 +2529,17 @@
       </c>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
+      <c r="L43" s="1">
+        <v>30</v>
+      </c>
       <c r="M43" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2490,7 +2551,7 @@
         <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3">
@@ -2501,18 +2562,17 @@
       </c>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
+      <c r="L44" s="1">
+        <v>30</v>
+      </c>
       <c r="M44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="O44" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.45">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2524,28 +2584,31 @@
         <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="3">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="I45" s="3">
         <v>45835</v>
       </c>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
+      <c r="L45" s="1">
+        <v>30</v>
+      </c>
       <c r="M45" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="O45" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2557,7 +2620,7 @@
         <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3">
@@ -2568,15 +2631,20 @@
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
+      <c r="L46" s="1">
+        <v>30</v>
+      </c>
       <c r="M46" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+      <c r="O46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2588,11 +2656,13 @@
         <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G47" s="1"/>
+        <v>71</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="H47" s="3">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="I47" s="3">
         <v>45835</v>
@@ -2607,7 +2677,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.45">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2619,7 +2689,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3">
@@ -2630,17 +2700,15 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1">
-        <v>50</v>
-      </c>
+      <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2652,7 +2720,7 @@
         <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3">
@@ -2663,17 +2731,15 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1">
-        <v>50</v>
-      </c>
+      <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2685,7 +2751,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2697,83 +2763,115 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N50" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>79</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="G51" s="1"/>
       <c r="H51" s="3">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="I51" s="3">
         <v>45835</v>
       </c>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
+      <c r="L51" s="1">
+        <v>50</v>
+      </c>
       <c r="M51" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="D52" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I52" s="3">
+        <v>45835</v>
+      </c>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="L52" s="1">
+        <v>100</v>
+      </c>
+      <c r="M52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N52" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
+      <c r="D53" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H53" s="3">
+        <v>45827</v>
+      </c>
+      <c r="I53" s="3">
+        <v>45835</v>
+      </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.45">
+      <c r="M53" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2790,7 +2888,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2807,7 +2905,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2824,7 +2922,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2841,7 +2939,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2858,7 +2956,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2875,7 +2973,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.45">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2892,11 +2990,45 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C61" s="1">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C62" s="1">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N60" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M60" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M62" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -2906,6 +3038,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3076,12 +3214,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3092,6 +3224,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3110,23 +3259,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF96B87F-0993-45BD-9471-752B4D79A624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93574AE-5E2D-49EA-B94C-ED98C99F0408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="330" yWindow="1035" windowWidth="57600" windowHeight="25605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="0" yWindow="1035" windowWidth="57600" windowHeight="25605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,10 +1128,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1190,7 +1191,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1275,7 +1276,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1322,7 @@
         <v>0.56086956521739129</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1360,7 +1361,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1396,7 +1397,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1432,7 +1433,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1465,7 +1466,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1531,7 +1532,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1548,7 +1549,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1581,7 +1582,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1614,7 +1615,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1680,7 +1681,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1697,7 +1698,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1730,7 +1731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1763,7 +1764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1796,7 +1797,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1829,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1862,7 +1863,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1891,7 +1892,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1920,7 +1921,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1937,7 +1938,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1972,7 +1973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2010,7 +2011,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2045,7 +2046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2083,7 +2084,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2121,7 +2122,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2229,7 +2230,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2267,7 +2268,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2305,7 +2306,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2343,7 +2344,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2360,7 +2361,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2391,7 +2392,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2422,7 +2423,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2453,7 +2454,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2470,7 +2471,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2506,7 +2507,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2539,7 +2540,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2572,7 +2573,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2608,7 +2609,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2671,7 +2672,7 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
         <v>86</v>
@@ -2739,7 +2740,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2772,7 +2773,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2805,7 +2806,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2865,13 +2866,13 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N53" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2888,7 +2889,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2905,7 +2906,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2922,7 +2923,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2939,7 +2940,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2956,7 +2957,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2973,7 +2974,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2990,7 +2991,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3007,7 +3008,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3025,7 +3026,13 @@
       <c r="N62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="梶川"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M62" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -3038,12 +3045,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3214,6 +3215,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3224,23 +3231,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3259,6 +3249,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93574AE-5E2D-49EA-B94C-ED98C99F0408}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDB581-A1CB-496F-AA7B-1E8DE375D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1035" windowWidth="57600" windowHeight="25605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -1132,7 +1132,7 @@
   <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L53" sqref="L53"/>
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2703,7 +2703,7 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
         <v>86</v>
@@ -2734,7 +2734,7 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
         <v>86</v>
@@ -3045,6 +3045,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3215,12 +3221,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3231,6 +3231,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3249,23 +3266,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFDB581-A1CB-496F-AA7B-1E8DE375D832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34566A-5C16-41EB-B758-B583CC378AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1035" windowWidth="57600" windowHeight="25605" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -506,22 +506,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>(JSP終わり次第取り組む)</t>
-    <rPh sb="4" eb="5">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>シダイ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ト</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>ク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全体のCSS(JSP終わり次第取り組む)</t>
     <rPh sb="0" eb="2">
       <t>ゼンタイ</t>
@@ -598,10 +582,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>やばい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JSPおわらんとやばい</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -667,13 +647,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>いったん保留</t>
-    <rPh sb="4" eb="6">
-      <t>ホリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>tencho_user_reg.css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -718,6 +691,13 @@
     <t>進捗率は</t>
     <rPh sb="0" eb="3">
       <t>シンチョクリツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エラーが出ない</t>
+    <rPh sb="4" eb="5">
+      <t>デ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1128,11 +1108,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1191,7 +1170,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1224,16 +1203,16 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R3" s="1">
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1260,23 +1239,23 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L53)</f>
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1303,26 +1282,23 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.56086956521739129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>0.67826086956521736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1349,19 +1325,19 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1388,16 +1364,16 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1427,13 +1403,13 @@
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1463,10 +1439,10 @@
         <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1490,13 +1466,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1523,16 +1499,16 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1549,7 +1525,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1579,10 +1555,10 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1612,10 +1588,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1645,7 +1621,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1672,16 +1648,16 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1698,7 +1674,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1728,10 +1704,10 @@
         <v>15</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1761,10 +1737,10 @@
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1794,10 +1770,10 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1827,10 +1803,10 @@
         <v>15</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1860,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1875,7 +1851,7 @@
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="3"/>
@@ -1889,10 +1865,10 @@
         <v>16</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1904,7 +1880,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
@@ -1918,10 +1894,10 @@
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1938,7 +1914,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1970,10 +1946,10 @@
         <v>13</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2005,13 +1981,13 @@
         <v>13</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2043,10 +2019,10 @@
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2072,19 +2048,19 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O29" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2116,13 +2092,13 @@
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="O30" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2148,16 +2124,16 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O31" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
@@ -2186,13 +2162,13 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.4">
@@ -2221,16 +2197,16 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2256,19 +2232,16 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2294,19 +2267,16 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2332,19 +2302,16 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2361,7 +2328,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2389,10 +2356,10 @@
         <v>12</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2405,7 +2372,7 @@
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H39" s="3">
         <v>45831</v>
@@ -2420,10 +2387,10 @@
         <v>12</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2436,7 +2403,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H40" s="3">
         <v>45831</v>
@@ -2451,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2471,7 +2438,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2501,13 +2468,13 @@
         <v>16</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O42" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2531,16 +2498,16 @@
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2564,16 +2531,16 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2603,13 +2570,13 @@
         <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O45" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2639,10 +2606,10 @@
         <v>13</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O46" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.4">
@@ -2659,9 +2626,7 @@
       <c r="F47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="G47" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G47" s="1"/>
       <c r="H47" s="3">
         <v>45827</v>
       </c>
@@ -2670,12 +2635,14 @@
       </c>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
+      <c r="L47" s="1">
+        <v>30</v>
+      </c>
       <c r="M47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.4">
@@ -2701,12 +2668,14 @@
       </c>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
+      <c r="L48" s="1">
+        <v>25</v>
+      </c>
       <c r="M48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -2732,15 +2701,17 @@
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="L49" s="1">
+        <v>25</v>
+      </c>
       <c r="M49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2752,7 +2723,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2770,10 +2741,10 @@
         <v>16</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2785,7 +2756,7 @@
         <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3">
@@ -2797,16 +2768,16 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2818,7 +2789,7 @@
         <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2836,7 +2807,7 @@
         <v>16</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.4">
@@ -2854,7 +2825,7 @@
         <v>77</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H53" s="3">
         <v>45827</v>
@@ -2864,15 +2835,17 @@
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
+      <c r="L53" s="1">
+        <v>50</v>
+      </c>
       <c r="M53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2889,7 +2862,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2906,7 +2879,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2923,7 +2896,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2940,7 +2913,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2957,7 +2930,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2974,7 +2947,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2991,7 +2964,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3008,7 +2981,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3026,13 +2999,7 @@
       <c r="N62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="梶川"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M62" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -3045,12 +3012,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3221,6 +3182,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3231,23 +3198,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3266,6 +3216,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B34566A-5C16-41EB-B758-B583CC378AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82A2D4-D1B5-40B3-AB66-8ECFCDE1AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,10 +1108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1170,7 +1171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1255,7 +1256,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1298,7 +1299,7 @@
         <v>0.67826086956521736</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1337,7 +1338,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1373,7 +1374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1409,7 +1410,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1442,7 +1443,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1508,7 +1509,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1525,7 +1526,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1558,7 +1559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1591,7 +1592,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1657,7 +1658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1674,7 +1675,7 @@
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1707,7 +1708,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1740,7 +1741,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1773,7 +1774,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1806,7 +1807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1839,7 +1840,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1868,7 +1869,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1897,7 +1898,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1914,7 +1915,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1949,7 +1950,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1987,7 +1988,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2022,7 +2023,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2060,7 +2061,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2098,7 +2099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2206,7 +2207,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2241,7 +2242,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2276,7 +2277,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2311,7 +2312,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2328,7 +2329,7 @@
       <c r="M37" s="1"/>
       <c r="N37" s="1"/>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2359,7 +2360,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2390,7 +2391,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2421,7 +2422,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2438,7 +2439,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2474,7 +2475,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2507,7 +2508,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2540,7 +2541,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2576,7 +2577,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2612,7 +2613,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2711,7 +2712,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2744,7 +2745,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2777,7 +2778,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2845,7 +2846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2862,7 +2863,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -2879,7 +2880,7 @@
       <c r="M55" s="1"/>
       <c r="N55" s="1"/>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2896,7 +2897,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2913,7 +2914,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2930,7 +2931,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2947,7 +2948,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2964,7 +2965,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2981,7 +2982,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2999,7 +3000,13 @@
       <c r="N62" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="梶川"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M62" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -3012,6 +3019,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3182,12 +3195,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3198,6 +3205,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3216,23 +3240,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D82A2D4-D1B5-40B3-AB66-8ECFCDE1AD0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520D845-DD5D-4A10-9A32-8C0B44EABDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$C$2:$N$64</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -699,6 +699,21 @@
     <rPh sb="4" eb="5">
       <t>デ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EventTypeDao.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二上</t>
+    <rPh sb="0" eb="2">
+      <t>フタガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Type.java</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1108,11 +1123,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:R62"/>
+  <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O32" sqref="O32"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1171,7 +1185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1213,12 +1227,12 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" ref="C4:C62" si="0">ROW()-2</f>
+        <f t="shared" ref="C4:C64" si="0">ROW()-2</f>
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
@@ -1252,11 +1266,11 @@
         <v>103</v>
       </c>
       <c r="R4" s="1">
-        <f>SUM(L3:L53)</f>
+        <f>SUM(L3:L55)</f>
         <v>3120</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1299,7 +1313,7 @@
         <v>0.67826086956521736</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1338,7 +1352,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1374,7 +1388,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1410,7 +1424,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1443,7 +1457,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1509,7 +1523,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1526,7 +1540,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1559,7 +1573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1592,7 +1606,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1658,57 +1672,49 @@
         <v>85</v>
       </c>
     </row>
-    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="N17" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="3">
-        <v>45832</v>
-      </c>
-      <c r="I18" s="3">
-        <v>45832</v>
-      </c>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
-      <c r="L18" s="1">
-        <v>100</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1720,7 +1726,7 @@
         <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="3">
@@ -1741,7 +1747,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1753,7 +1759,7 @@
         <v>33</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="3">
@@ -1774,7 +1780,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1786,7 +1792,7 @@
         <v>33</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="3">
@@ -1807,7 +1813,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1819,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="3">
@@ -1840,7 +1846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1852,24 +1858,28 @@
         <v>33</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
+      <c r="H23" s="3">
+        <v>45832</v>
+      </c>
+      <c r="I23" s="3">
+        <v>45832</v>
+      </c>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1">
         <v>100</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1881,11 +1891,11 @@
         <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1">
@@ -1898,97 +1908,78 @@
         <v>101</v>
       </c>
     </row>
-    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L25" s="1">
+        <v>100</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H26" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I26" s="3">
-        <v>45827</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1">
-        <v>95</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
       <c r="N26" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="D27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="3">
-        <v>45825</v>
-      </c>
-      <c r="I27" s="3">
-        <v>45827</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
-      <c r="L27" s="1">
-        <v>75</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2000,10 +1991,10 @@
         <v>50</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H28" s="3">
         <v>45825</v>
@@ -2014,16 +2005,16 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2035,10 +2026,10 @@
         <v>50</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H29" s="3">
         <v>45825</v>
@@ -2055,13 +2046,13 @@
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2073,10 +2064,10 @@
         <v>50</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H30" s="3">
         <v>45825</v>
@@ -2087,19 +2078,16 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="O30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2111,10 +2099,10 @@
         <v>50</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H31" s="3">
         <v>45825</v>
@@ -2125,16 +2113,16 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="O31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
@@ -2149,10 +2137,10 @@
         <v>50</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H32" s="3">
         <v>45825</v>
@@ -2163,13 +2151,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
+      </c>
+      <c r="O32" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.4">
@@ -2184,10 +2175,10 @@
         <v>50</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H33" s="3">
         <v>45825</v>
@@ -2198,16 +2189,19 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="O33" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2219,10 +2213,10 @@
         <v>50</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H34" s="3">
         <v>45825</v>
@@ -2233,16 +2227,16 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2254,10 +2248,10 @@
         <v>50</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H35" s="3">
         <v>45825</v>
@@ -2268,16 +2262,16 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2289,10 +2283,10 @@
         <v>50</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" s="3">
         <v>45825</v>
@@ -2303,95 +2297,103 @@
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H37" s="3">
+        <v>45825</v>
+      </c>
+      <c r="I37" s="3">
+        <v>45827</v>
+      </c>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L37" s="1">
+        <v>80</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F38" s="1"/>
+        <v>50</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="G38" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="H38" s="3">
-        <v>45831</v>
+        <v>45825</v>
       </c>
       <c r="I38" s="3">
-        <v>45833</v>
+        <v>45827</v>
       </c>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
+      <c r="L38" s="1">
+        <v>60</v>
+      </c>
       <c r="M38" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1"/>
-      <c r="G39" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H39" s="3">
-        <v>45831</v>
-      </c>
-      <c r="I39" s="3">
-        <v>45833</v>
-      </c>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N39" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2404,7 +2406,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="H40" s="3">
         <v>45831</v>
@@ -2422,93 +2424,86 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="D41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="3">
+        <v>45831</v>
+      </c>
+      <c r="I41" s="3">
+        <v>45833</v>
+      </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="M41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="H42" s="3">
-        <v>45834</v>
+        <v>45831</v>
       </c>
       <c r="I42" s="3">
-        <v>45835</v>
+        <v>45833</v>
       </c>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
-      <c r="L42" s="1">
-        <v>100</v>
-      </c>
+      <c r="L42" s="1"/>
       <c r="M42" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O42" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="D43" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>67</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="3">
-        <v>45834</v>
-      </c>
-      <c r="I43" s="3">
-        <v>45835</v>
-      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
-      <c r="L43" s="1">
-        <v>40</v>
-      </c>
-      <c r="M43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N43" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2520,7 +2515,7 @@
         <v>74</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3">
@@ -2532,16 +2527,19 @@
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+      <c r="O44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2553,7 +2551,7 @@
         <v>74</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3">
@@ -2565,19 +2563,16 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O45" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2589,7 +2584,7 @@
         <v>74</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3">
@@ -2601,19 +2596,16 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="O46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2625,11 +2617,11 @@
         <v>74</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="I47" s="3">
         <v>45835</v>
@@ -2643,7 +2635,10 @@
         <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
+      </c>
+      <c r="O47" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.4">
@@ -2658,7 +2653,7 @@
         <v>74</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3">
@@ -2670,13 +2665,16 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
+      </c>
+      <c r="O48" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -2691,11 +2689,11 @@
         <v>74</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3">
-        <v>45834</v>
+        <v>45827</v>
       </c>
       <c r="I49" s="3">
         <v>45835</v>
@@ -2703,16 +2701,16 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2724,7 +2722,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2736,16 +2734,16 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="M50" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2757,7 +2755,7 @@
         <v>74</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3">
@@ -2769,16 +2767,16 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>80</v>
+        <v>25</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2790,7 +2788,7 @@
         <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2817,19 +2815,17 @@
         <v>51</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>78</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G53" s="1"/>
       <c r="H53" s="3">
-        <v>45827</v>
+        <v>45834</v>
       </c>
       <c r="I53" s="3">
         <v>45835</v>
@@ -2837,50 +2833,84 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="D54" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="G54" s="1"/>
-      <c r="H54" s="1"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="3">
+        <v>45834</v>
+      </c>
+      <c r="I54" s="3">
+        <v>45835</v>
+      </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L54" s="1">
+        <v>100</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
+      <c r="D55" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H55" s="3">
+        <v>45827</v>
+      </c>
+      <c r="I55" s="3">
+        <v>45835</v>
+      </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+      <c r="L55" s="1">
+        <v>50</v>
+      </c>
+      <c r="M55" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2897,7 +2927,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2914,7 +2944,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2931,7 +2961,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2948,7 +2978,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2965,7 +2995,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2982,7 +3012,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2999,17 +3029,45 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C63" s="1">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+      <c r="C64" s="1">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
   </sheetData>
-  <autoFilter ref="C2:N62" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="梶川"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M62" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
       <formula1>$A$2:$A$7</formula1>
     </dataValidation>
   </dataValidations>
@@ -3019,12 +3077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3195,6 +3247,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3205,23 +3263,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3240,6 +3281,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B520D845-DD5D-4A10-9A32-8C0B44EABDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678E66F-9E17-421D-B785-F0549D681EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -513,19 +513,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>イベントのガントチャート（画面の動きがわかったら開始）</t>
-    <rPh sb="13" eb="15">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>シフトのガントチャート（画面の動きがわかったら開始）</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -714,6 +701,13 @@
   </si>
   <si>
     <t>Type.java</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要らないかも？</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1125,8 +1119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1218,13 +1212,13 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R3" s="1">
-        <v>4600</v>
+        <v>4700</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.4">
@@ -1260,14 +1254,14 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>3120</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1297,20 +1291,20 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.67826086956521736</v>
+        <v>0.80851063829787229</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1340,16 +1334,16 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
@@ -1379,13 +1373,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.4">
@@ -1412,16 +1406,16 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.4">
@@ -1448,13 +1442,13 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
@@ -1481,13 +1475,13 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
@@ -1514,13 +1508,13 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
@@ -1570,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.4">
@@ -1603,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
@@ -1636,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
@@ -1669,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.4">
@@ -1684,17 +1678,21 @@
         <v>32</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
+      <c r="L17" s="1">
+        <v>100</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N17" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
@@ -1744,7 +1742,7 @@
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="3:15" x14ac:dyDescent="0.4">
@@ -1777,7 +1775,7 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="3:15" x14ac:dyDescent="0.4">
@@ -1810,7 +1808,7 @@
         <v>15</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="3:15" x14ac:dyDescent="0.4">
@@ -1843,7 +1841,7 @@
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="3:15" x14ac:dyDescent="0.4">
@@ -1876,7 +1874,7 @@
         <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.4">
@@ -1891,7 +1889,7 @@
         <v>33</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
@@ -1905,7 +1903,7 @@
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.4">
@@ -1920,7 +1918,7 @@
         <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1934,7 +1932,7 @@
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.4">
@@ -1949,17 +1947,21 @@
         <v>33</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="L26" s="1">
+        <v>100</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="N26" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.4">
@@ -2011,7 +2013,7 @@
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="29" spans="3:15" x14ac:dyDescent="0.4">
@@ -2046,10 +2048,10 @@
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O29" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="3:15" x14ac:dyDescent="0.4">
@@ -2084,7 +2086,10 @@
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="O30" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.4">
@@ -2119,10 +2124,10 @@
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
@@ -2151,16 +2156,16 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O32" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.4">
@@ -2189,16 +2194,16 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.4">
@@ -2227,13 +2232,13 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="3:15" x14ac:dyDescent="0.4">
@@ -2262,13 +2267,13 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="3:15" x14ac:dyDescent="0.4">
@@ -2303,7 +2308,7 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="3:15" x14ac:dyDescent="0.4">
@@ -2332,13 +2337,13 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="3:15" x14ac:dyDescent="0.4">
@@ -2367,13 +2372,13 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.4">
@@ -2416,44 +2421,29 @@
       </c>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
+      <c r="L40" s="1">
+        <v>50</v>
+      </c>
       <c r="M40" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1"/>
-      <c r="G41" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H41" s="3">
-        <v>45831</v>
-      </c>
-      <c r="I41" s="3">
-        <v>45833</v>
-      </c>
+      <c r="G41" s="1"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>87</v>
-      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
@@ -2468,7 +2458,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H42" s="3">
         <v>45831</v>
@@ -2483,7 +2473,7 @@
         <v>12</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="3:15" x14ac:dyDescent="0.4">
@@ -2533,10 +2523,10 @@
         <v>16</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="3:15" x14ac:dyDescent="0.4">
@@ -2563,13 +2553,13 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="3:15" x14ac:dyDescent="0.4">
@@ -2602,7 +2592,10 @@
         <v>12</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="O46" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.4">
@@ -2629,16 +2622,16 @@
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O47" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="48" spans="3:15" x14ac:dyDescent="0.4">
@@ -2665,16 +2658,16 @@
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O48" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="49" spans="3:14" x14ac:dyDescent="0.4">
@@ -2701,13 +2694,13 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="3:14" x14ac:dyDescent="0.4">
@@ -2734,13 +2727,13 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="3:14" x14ac:dyDescent="0.4">
@@ -2767,13 +2760,13 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>25</v>
+        <v>60</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="3:14" x14ac:dyDescent="0.4">
@@ -2788,7 +2781,7 @@
         <v>74</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2806,7 +2799,7 @@
         <v>16</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="3:14" x14ac:dyDescent="0.4">
@@ -2821,7 +2814,7 @@
         <v>74</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="3">
@@ -2833,13 +2826,13 @@
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="54" spans="3:14" x14ac:dyDescent="0.4">
@@ -2854,7 +2847,7 @@
         <v>74</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="3">
@@ -2872,7 +2865,7 @@
         <v>16</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="3:14" x14ac:dyDescent="0.4">
@@ -2907,7 +2900,7 @@
         <v>13</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="3:14" x14ac:dyDescent="0.4">
@@ -3077,6 +3070,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3247,12 +3246,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3263,6 +3256,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3281,23 +3291,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0678E66F-9E17-421D-B785-F0549D681EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F9699-7EB1-40D8-BD38-99D8898C4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,9 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -1179,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1221,7 +1222,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1265,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>0.80851063829787229</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1346,7 +1347,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1382,7 +1383,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1418,7 +1419,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1451,7 +1452,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1517,7 +1518,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1534,7 +1535,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1567,7 +1568,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1600,7 +1601,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1666,7 +1667,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1695,7 +1696,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1712,7 +1713,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1745,7 +1746,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1778,7 +1779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1811,7 +1812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1844,7 +1845,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1877,7 +1878,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1906,7 +1907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1935,7 +1936,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1964,7 +1965,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1981,7 +1982,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2016,7 +2017,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2054,7 +2055,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2092,7 +2093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2130,7 +2131,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2168,7 +2169,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2276,7 +2277,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2311,7 +2312,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2346,7 +2347,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2381,7 +2382,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2398,7 +2399,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2431,7 +2432,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2445,7 +2446,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2476,7 +2477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2493,7 +2494,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2529,7 +2530,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2562,7 +2563,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2598,7 +2599,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2634,7 +2635,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2670,7 +2671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2769,7 +2770,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2802,7 +2803,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2835,7 +2836,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2903,7 +2904,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2920,7 +2921,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2937,7 +2938,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2954,7 +2955,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2971,7 +2972,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2988,7 +2989,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3005,7 +3006,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3022,7 +3023,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3039,7 +3040,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3057,7 +3058,13 @@
       <c r="N64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="梶川"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -3070,12 +3077,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3246,6 +3247,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3256,23 +3263,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3291,6 +3281,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676F9699-7EB1-40D8-BD38-99D8898C4F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A92CC5-DDBA-4A33-AAF9-B5436F14B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="4290" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="8340" yWindow="3840" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1117,10 +1117,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -1180,7 +1179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1221,7 @@
         <v>4700</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1264,7 @@
         <v>3800</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1307,7 @@
         <v>0.80851063829787229</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1347,7 +1346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1383,7 +1382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1419,7 +1418,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1452,7 +1451,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1518,7 +1517,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1535,7 +1534,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1568,7 +1567,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1601,7 +1600,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1667,7 +1666,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1696,7 +1695,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1713,7 +1712,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1746,7 +1745,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1779,7 +1778,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1812,7 +1811,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1845,7 +1844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1878,7 +1877,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1907,7 +1906,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1936,7 +1935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1965,7 +1964,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1982,7 +1981,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2017,7 +2016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2055,7 +2054,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2093,7 +2092,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2131,7 +2130,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2169,7 +2168,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2277,7 +2276,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2312,7 +2311,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2347,7 +2346,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2382,7 +2381,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2399,7 +2398,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2432,7 +2431,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2446,7 +2445,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2477,7 +2476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2494,7 +2493,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2530,7 +2529,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2563,7 +2562,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2599,7 +2598,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2635,7 +2634,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2671,7 +2670,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2770,7 +2769,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2803,7 +2802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2836,7 +2835,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -2904,7 +2903,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2921,7 +2920,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2938,7 +2937,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2955,7 +2954,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2972,7 +2971,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2989,7 +2988,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3006,7 +3005,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3023,7 +3022,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3040,7 +3039,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3058,13 +3057,7 @@
       <c r="N64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="梶川"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -3077,6 +3070,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3247,12 +3246,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3263,6 +3256,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3281,23 +3291,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A92CC5-DDBA-4A33-AAF9-B5436F14B990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE865C-9075-482E-91B7-350C86CE4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8340" yWindow="3840" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="107">
   <si>
     <t>項番</t>
     <rPh sb="0" eb="2">
@@ -196,10 +196,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ShiftCheckServlet.java</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EventServlet.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -513,10 +509,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>シフトのガントチャート（画面の動きがわかったら開始）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>二上</t>
     <rPh sb="0" eb="2">
       <t>フタガミ</t>
@@ -682,13 +674,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>エラーが出ない</t>
-    <rPh sb="4" eb="5">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>EventTypeDao.java</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -707,6 +692,16 @@
     <t>要らないかも？</t>
     <rPh sb="0" eb="1">
       <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眼のやつを除けばできている</t>
+    <rPh sb="0" eb="1">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ノゾ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1119,29 +1114,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1179,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1188,10 +1183,10 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>18</v>
@@ -1212,16 +1207,16 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="R3" s="1">
-        <v>4700</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+        <v>4600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1230,10 +1225,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>17</v>
@@ -1254,17 +1249,17 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1273,10 +1268,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>19</v>
@@ -1297,17 +1292,17 @@
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.80851063829787229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>0.85847826086956525</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1316,10 +1311,10 @@
         <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>20</v>
@@ -1334,19 +1329,16 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="O6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1355,10 +1347,10 @@
         <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>21</v>
@@ -1373,25 +1365,25 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>22</v>
@@ -1406,64 +1398,44 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>23</v>
-      </c>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="1"/>
-      <c r="H9" s="3">
-        <v>45827</v>
-      </c>
-      <c r="I9" s="3">
-        <v>45831</v>
-      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
-      <c r="L9" s="1">
-        <v>45</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="3">
@@ -1481,22 +1453,21 @@
         <v>15</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3">
@@ -1508,20 +1479,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1534,19 +1502,18 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13" s="3">
@@ -1564,22 +1531,21 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="3">
@@ -1597,22 +1563,21 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="3">
@@ -1630,22 +1595,21 @@
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="3">
@@ -1663,22 +1627,21 @@
         <v>13</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
@@ -1692,14 +1655,11 @@
         <v>15</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1712,19 +1672,18 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="3">
@@ -1742,22 +1701,21 @@
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" s="1"/>
       <c r="H20" s="3">
@@ -1775,22 +1733,21 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="3">
@@ -1808,22 +1765,21 @@
         <v>15</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="3">
@@ -1841,22 +1797,21 @@
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="3">
@@ -1874,22 +1829,21 @@
         <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
@@ -1903,22 +1857,21 @@
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1932,22 +1885,21 @@
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1961,14 +1913,11 @@
         <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1981,22 +1930,21 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H28" s="3">
         <v>45825</v>
@@ -2013,25 +1961,24 @@
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H29" s="3">
         <v>45825</v>
@@ -2042,34 +1989,33 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H30" s="3">
         <v>45825</v>
@@ -2080,34 +2026,33 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H31" s="3">
         <v>45825</v>
@@ -2124,28 +2069,27 @@
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O31" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H32" s="3">
         <v>45825</v>
@@ -2156,34 +2100,33 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="O32" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="3">
         <v>45825</v>
@@ -2194,34 +2137,33 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O33" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H34" s="3">
         <v>45825</v>
@@ -2232,31 +2174,30 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" s="3">
         <v>45825</v>
@@ -2267,31 +2208,30 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" s="3">
         <v>45825</v>
@@ -2308,25 +2248,24 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H37" s="3">
         <v>45825</v>
@@ -2343,25 +2282,24 @@
         <v>15</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H38" s="3">
         <v>45825</v>
@@ -2372,20 +2310,20 @@
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="O38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2398,20 +2336,19 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1">
-        <f t="shared" si="0"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D40" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H40" s="3">
         <v>45831</v>
@@ -2428,10 +2365,10 @@
         <v>13</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2445,42 +2382,22 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>63</v>
-      </c>
+    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1"/>
-      <c r="G42" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H42" s="3">
-        <v>45831</v>
-      </c>
-      <c r="I42" s="3">
-        <v>45833</v>
-      </c>
+      <c r="G42" s="1"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N42" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="C43" s="1">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
@@ -2493,19 +2410,18 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3">
@@ -2523,25 +2439,24 @@
         <v>16</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="O44" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3">
@@ -2553,28 +2468,27 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3">
@@ -2586,31 +2500,30 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="O46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3">
@@ -2628,25 +2541,24 @@
         <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3">
@@ -2664,25 +2576,24 @@
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O48" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3">
@@ -2694,28 +2605,27 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1">
-        <f t="shared" si="0"/>
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2733,22 +2643,21 @@
         <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3">
@@ -2766,22 +2675,21 @@
         <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2799,22 +2707,21 @@
         <v>16</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1">
-        <f t="shared" si="0"/>
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="3">
@@ -2832,22 +2739,21 @@
         <v>15</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1">
-        <f t="shared" si="0"/>
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="3">
@@ -2865,25 +2771,24 @@
         <v>16</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1">
-        <f t="shared" si="0"/>
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="H55" s="3">
         <v>45827</v>
@@ -2900,10 +2805,10 @@
         <v>13</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2920,7 +2825,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2937,7 +2842,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2954,7 +2859,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2971,7 +2876,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2988,7 +2893,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -3005,7 +2910,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -3022,7 +2927,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -3039,7 +2944,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -3070,12 +2975,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3246,6 +3145,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3256,23 +3161,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3291,6 +3179,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDE865C-9075-482E-91B7-350C86CE4C53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E392C-11D0-4A05-8624-1813F973E4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="450" yWindow="15795" windowWidth="38265" windowHeight="15450" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,22 +440,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>月の前後、シフト/イベント切替、アラート表示、ハンバーガーメニュー、</t>
-    <rPh sb="0" eb="1">
-      <t>ツキ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ゼンゴ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>キリカエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>css</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -702,6 +686,16 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ノゾ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンバーガーメニュー（他は無くなった）</t>
+    <rPh sb="11" eb="12">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1115,28 +1109,28 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1174,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1207,16 +1201,16 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R3" s="1">
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1249,17 +1243,17 @@
         <v>15</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>3949</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1292,17 +1286,17 @@
         <v>15</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.85847826086956525</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0.86934782608695649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1335,10 +1329,10 @@
         <v>15</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1371,10 +1365,10 @@
         <v>13</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1404,13 +1398,13 @@
         <v>13</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1424,7 +1418,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1453,10 +1447,10 @@
         <v>15</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1485,10 +1479,10 @@
         <v>13</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1502,7 +1496,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1531,10 +1525,10 @@
         <v>15</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1563,10 +1557,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1595,10 +1589,10 @@
         <v>16</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1627,10 +1621,10 @@
         <v>13</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1641,7 +1635,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
@@ -1655,10 +1649,10 @@
         <v>15</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1672,7 +1666,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1701,10 +1695,10 @@
         <v>15</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1733,10 +1727,10 @@
         <v>15</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1747,7 +1741,7 @@
         <v>32</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="3">
@@ -1765,10 +1759,10 @@
         <v>15</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1797,10 +1791,10 @@
         <v>15</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1829,10 +1823,10 @@
         <v>15</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1843,7 +1837,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
@@ -1857,10 +1851,10 @@
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1871,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1885,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1899,7 +1893,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1913,10 +1907,10 @@
         <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1930,7 +1924,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1961,10 +1955,10 @@
         <v>13</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1995,13 +1989,13 @@
         <v>13</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2032,13 +2026,13 @@
         <v>13</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O30" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2069,13 +2063,13 @@
         <v>13</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O31" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2106,13 +2100,13 @@
         <v>13</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="O32" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2143,13 +2137,13 @@
         <v>15</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O33" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2180,10 +2174,10 @@
         <v>13</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2214,10 +2208,10 @@
         <v>13</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2248,10 +2242,10 @@
         <v>15</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2282,10 +2276,10 @@
         <v>15</v>
       </c>
       <c r="N37" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2316,13 +2310,13 @@
         <v>13</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O38" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2336,7 +2330,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2348,7 +2342,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>63</v>
+        <v>106</v>
       </c>
       <c r="H40" s="3">
         <v>45831</v>
@@ -2359,16 +2353,16 @@
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2382,7 +2376,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2396,7 +2390,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2410,18 +2404,18 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <v>35</v>
       </c>
       <c r="D44" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F44" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="G44" s="1"/>
       <c r="H44" s="3">
@@ -2439,24 +2433,24 @@
         <v>16</v>
       </c>
       <c r="N44" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <v>36</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" s="1"/>
       <c r="H45" s="3">
@@ -2474,21 +2468,21 @@
         <v>13</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <v>37</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="3">
@@ -2506,24 +2500,24 @@
         <v>12</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="O46" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <v>38</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" s="1"/>
       <c r="H47" s="3">
@@ -2541,24 +2535,24 @@
         <v>13</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O47" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <v>39</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G48" s="1"/>
       <c r="H48" s="3">
@@ -2576,24 +2570,24 @@
         <v>13</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="O48" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <v>40</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G49" s="1"/>
       <c r="H49" s="3">
@@ -2611,21 +2605,21 @@
         <v>13</v>
       </c>
       <c r="N49" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <v>41</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G50" s="1"/>
       <c r="H50" s="3">
@@ -2643,21 +2637,21 @@
         <v>13</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G51" s="1"/>
       <c r="H51" s="3">
@@ -2675,21 +2669,21 @@
         <v>13</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2707,21 +2701,21 @@
         <v>16</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <v>44</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="3">
@@ -2739,21 +2733,21 @@
         <v>15</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <v>45</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="3">
@@ -2771,24 +2765,24 @@
         <v>16</v>
       </c>
       <c r="N54" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <v>46</v>
       </c>
       <c r="D55" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F55" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E55" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H55" s="3">
         <v>45827</v>
@@ -2805,10 +2799,10 @@
         <v>13</v>
       </c>
       <c r="N55" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2825,7 +2819,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2842,7 +2836,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2859,7 +2853,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2876,7 +2870,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2893,7 +2887,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2910,7 +2904,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2927,7 +2921,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2944,7 +2938,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2975,6 +2969,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3145,12 +3145,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3161,6 +3155,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3179,23 +3190,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{232E392C-11D0-4A05-8624-1813F973E4D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F3C29-5CAF-4CFB-8433-5A962BCCDB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="15795" windowWidth="38265" windowHeight="15450" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15450" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,29 +1108,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1253,7 @@
         <v>3999</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1296,7 +1296,7 @@
         <v>0.86934782608695649</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1404,7 +1404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1418,7 +1418,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1666,7 +1666,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2211,7 +2211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2376,7 +2376,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2390,7 +2390,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1">
         <v>35</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1">
         <v>36</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1">
         <v>37</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1">
         <v>38</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1">
         <v>39</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1">
         <v>40</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1">
         <v>41</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1">
         <v>42</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1">
         <v>43</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1">
         <v>44</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1">
         <v>45</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1">
         <v>46</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2819,7 +2819,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2836,7 +2836,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2853,7 +2853,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2870,7 +2870,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2887,7 +2887,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2904,7 +2904,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2921,7 +2921,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2938,7 +2938,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2969,12 +2969,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3145,6 +3139,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3155,23 +3155,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3190,6 +3173,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7F3C29-5CAF-4CFB-8433-5A962BCCDB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3F0F1-8ED4-4DB5-B554-8A14A796717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="28800" windowHeight="15450" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="14070" yWindow="8010" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1108,29 +1108,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1210,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1250,10 +1250,10 @@
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>3999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1293,10 +1293,10 @@
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.86934782608695649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0.87152173913043474</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1404,7 +1404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1418,7 +1418,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1496,7 +1496,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1592,7 +1592,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1624,7 +1624,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1666,7 +1666,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1882,7 +1882,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1910,7 +1910,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1924,7 +1924,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2106,7 +2106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2168,7 +2168,7 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>13</v>
@@ -2177,7 +2177,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2202,7 +2202,7 @@
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>13</v>
@@ -2211,7 +2211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2245,7 +2245,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2330,7 +2330,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2362,7 +2362,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2376,7 +2376,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2390,7 +2390,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2404,7 +2404,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <v>35</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <v>36</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <v>37</v>
       </c>
@@ -2506,7 +2506,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <v>38</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <v>39</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <v>40</v>
       </c>
@@ -2608,7 +2608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <v>41</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <v>42</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <v>43</v>
       </c>
@@ -2704,7 +2704,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <v>44</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <v>45</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <v>46</v>
       </c>
@@ -2802,7 +2802,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2819,7 +2819,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2836,7 +2836,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2853,7 +2853,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2870,7 +2870,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2887,7 +2887,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2904,7 +2904,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2921,7 +2921,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2938,7 +2938,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2969,6 +2969,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3139,12 +3145,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3155,6 +3155,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3173,23 +3190,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA3F0F1-8ED4-4DB5-B554-8A14A796717F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC7DC3A-B1A3-472C-9C80-12BD742CEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="8010" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="10" yWindow="10" windowWidth="38380" windowHeight="20860" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -587,16 +587,6 @@
   </si>
   <si>
     <t>【23日まで】進みそう</t>
-    <rPh sb="3" eb="4">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>スス</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>【23日まで】進みそう</t>
     <rPh sb="7" eb="8">
       <t>スス</t>
     </rPh>
@@ -673,13 +663,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>要らないかも？</t>
-    <rPh sb="0" eb="1">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>眼のやつを除けばできている</t>
     <rPh sb="0" eb="1">
       <t>メ</t>
@@ -696,6 +679,35 @@
     </rPh>
     <rPh sb="13" eb="14">
       <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>要らないかも？現状使ってない</t>
+    <rPh sb="0" eb="1">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ゲンジョウツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>【23日まで】進みそう(月表示は無くなる可能性アリ)</t>
+    <rPh sb="3" eb="4">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スス</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ツキヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="20" eb="23">
+      <t>カノウセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1109,7 +1121,7 @@
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="N65" sqref="N65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1195,16 +1207,16 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R3" s="1">
         <v>4600</v>
@@ -1246,11 +1258,11 @@
         <v>78</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>4009</v>
+        <v>4203</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
@@ -1289,11 +1301,11 @@
         <v>78</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.87152173913043474</v>
+        <v>0.91369565217391302</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
@@ -1359,7 +1371,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
@@ -1441,7 +1453,7 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>15</v>
@@ -1473,7 +1485,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
@@ -1615,7 +1627,7 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>13</v>
@@ -1635,7 +1647,7 @@
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
@@ -1649,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.4">
@@ -1837,7 +1849,7 @@
         <v>32</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
@@ -1851,7 +1863,7 @@
         <v>16</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="3:15" x14ac:dyDescent="0.4">
@@ -1865,7 +1877,7 @@
         <v>32</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
@@ -1879,7 +1891,7 @@
         <v>16</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="3:15" x14ac:dyDescent="0.4">
@@ -1893,7 +1905,7 @@
         <v>32</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
@@ -1907,7 +1919,7 @@
         <v>15</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="3:15" x14ac:dyDescent="0.4">
@@ -1949,10 +1961,10 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="N28" s="1" t="s">
         <v>77</v>
@@ -1983,7 +1995,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
@@ -2020,7 +2032,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
@@ -2029,7 +2041,7 @@
         <v>79</v>
       </c>
       <c r="O30" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="3:15" x14ac:dyDescent="0.4">
@@ -2066,7 +2078,7 @@
         <v>80</v>
       </c>
       <c r="O31" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="3:15" x14ac:dyDescent="0.4">
@@ -2103,7 +2115,7 @@
         <v>80</v>
       </c>
       <c r="O32" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="3:15" x14ac:dyDescent="0.4">
@@ -2140,7 +2152,7 @@
         <v>77</v>
       </c>
       <c r="O33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="3:15" x14ac:dyDescent="0.4">
@@ -2313,7 +2325,7 @@
         <v>78</v>
       </c>
       <c r="O38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="3:15" x14ac:dyDescent="0.4">
@@ -2342,7 +2354,7 @@
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="H40" s="3">
         <v>45831</v>
@@ -2462,7 +2474,7 @@
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>13</v>
@@ -2494,7 +2506,7 @@
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>12</v>
@@ -2503,7 +2515,7 @@
         <v>79</v>
       </c>
       <c r="O46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="3:15" x14ac:dyDescent="0.4">
@@ -2599,7 +2611,7 @@
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>13</v>
@@ -2631,7 +2643,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>13</v>
@@ -2663,7 +2675,7 @@
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>13</v>
@@ -2683,7 +2695,7 @@
         <v>72</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G52" s="1"/>
       <c r="H52" s="3">
@@ -2715,7 +2727,7 @@
         <v>72</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G53" s="1"/>
       <c r="H53" s="3">
@@ -2747,7 +2759,7 @@
         <v>72</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="3">
@@ -2969,12 +2981,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3145,6 +3151,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3155,23 +3167,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3190,6 +3185,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACC7DC3A-B1A3-472C-9C80-12BD742CEF24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B62B3-1CFC-424B-BAF1-2EF24D89797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10" yWindow="10" windowWidth="38380" windowHeight="20860" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1120,29 +1120,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N65" sqref="N65"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.125" customWidth="1"/>
-    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.08203125" customWidth="1"/>
+    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1262,10 +1262,10 @@
       </c>
       <c r="R4" s="1">
         <f>SUM(L3:L55)</f>
-        <v>4203</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+        <v>4229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1305,10 +1305,10 @@
       </c>
       <c r="R5" s="4">
         <f>(R4/R3)</f>
-        <v>0.91369565217391302</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+        <v>0.91934782608695653</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +1371,7 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>13</v>
@@ -1380,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1416,7 +1416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1430,7 +1430,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1485,7 +1485,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>13</v>
@@ -1494,7 +1494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1508,7 +1508,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1604,7 +1604,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1678,7 +1678,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1936,7 +1936,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1970,7 +1970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -1995,7 +1995,7 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>13</v>
@@ -2007,7 +2007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2032,7 +2032,7 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>13</v>
@@ -2044,7 +2044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2118,7 +2118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2155,7 +2155,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2257,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2328,7 +2328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2342,7 +2342,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2388,7 +2388,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2402,7 +2402,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2416,7 +2416,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C44" s="1">
         <v>35</v>
       </c>
@@ -2451,7 +2451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C45" s="1">
         <v>36</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C46" s="1">
         <v>37</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C47" s="1">
         <v>38</v>
       </c>
@@ -2553,7 +2553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C48" s="1">
         <v>39</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C49" s="1">
         <v>40</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C50" s="1">
         <v>41</v>
       </c>
@@ -2643,7 +2643,7 @@
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>13</v>
@@ -2652,7 +2652,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" s="1">
         <v>42</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C52" s="1">
         <v>43</v>
       </c>
@@ -2716,7 +2716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C53" s="1">
         <v>44</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C54" s="1">
         <v>45</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C55" s="1">
         <v>46</v>
       </c>
@@ -2814,7 +2814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2831,7 +2831,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2848,7 +2848,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2865,7 +2865,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2882,7 +2882,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2899,7 +2899,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2916,7 +2916,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2933,7 +2933,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2950,7 +2950,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2981,6 +2981,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3151,12 +3157,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3167,6 +3167,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3185,23 +3202,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6B62B3-1CFC-424B-BAF1-2EF24D89797A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116498D-7CB1-4A74-80D2-04099A5CF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1118,31 +1118,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.08203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="50.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="16.08203125" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" customWidth="1"/>
+    <col min="16" max="16" width="11.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>0.91934782608695653</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1380,7 +1381,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1416,7 +1417,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1430,7 +1431,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C11" s="1">
         <v>8</v>
       </c>
@@ -1494,7 +1495,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1508,7 +1509,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1540,7 +1541,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1604,7 +1605,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C16" s="1">
         <v>12</v>
       </c>
@@ -1636,7 +1637,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1664,7 +1665,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1678,7 +1679,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1710,7 +1711,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1742,7 +1743,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1774,7 +1775,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1838,7 +1839,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1866,7 +1867,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1936,7 +1937,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1970,7 +1971,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -2007,7 +2008,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2044,7 +2045,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2155,7 +2156,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="34" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C34" s="1">
         <v>28</v>
       </c>
@@ -2189,7 +2190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="35" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C35" s="1">
         <v>29</v>
       </c>
@@ -2223,7 +2224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2291,7 +2292,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2342,7 +2343,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2374,7 +2375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2388,7 +2389,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2402,7 +2403,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2416,7 +2417,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <v>35</v>
       </c>
@@ -2451,7 +2452,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <v>36</v>
       </c>
@@ -2483,7 +2484,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <v>37</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <v>38</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <v>39</v>
       </c>
@@ -2588,7 +2589,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <v>40</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C50" s="1">
         <v>41</v>
       </c>
@@ -2652,7 +2653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C51" s="1">
         <v>42</v>
       </c>
@@ -2684,7 +2685,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <v>43</v>
       </c>
@@ -2716,7 +2717,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <v>44</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <v>45</v>
       </c>
@@ -2780,7 +2781,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C55" s="1">
         <v>46</v>
       </c>
@@ -2814,7 +2815,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2831,7 +2832,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2848,7 +2849,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2865,7 +2866,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2882,7 +2883,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2899,7 +2900,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2916,7 +2917,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2933,7 +2934,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2950,7 +2951,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2968,7 +2969,13 @@
       <c r="N64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
+  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
+    <filterColumn colId="11">
+      <filters>
+        <filter val="梶川"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -2981,12 +2988,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3157,6 +3158,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3167,23 +3174,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3202,6 +3192,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>

--- a/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
+++ b/documents/内部設計/061625_03_ファイル構成一覧表_A5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\plusdojo2025\A5\documents\内部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3116498D-7CB1-4A74-80D2-04099A5CF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A15F1A-8103-4510-84D5-901DD93E4B8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="31920" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
+    <workbookView xWindow="4365" yWindow="6120" windowWidth="43200" windowHeight="23445" xr2:uid="{8AE99860-7ADF-4316-9590-B2AD2D1E8F62}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1118,7 +1118,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:R64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -1181,7 +1180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>4600</v>
       </c>
     </row>
-    <row r="4" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +1265,7 @@
         <v>4229</v>
       </c>
     </row>
-    <row r="5" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>0.91934782608695653</v>
       </c>
     </row>
-    <row r="6" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -1345,7 +1344,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="7" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1381,7 +1380,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1417,7 +1416,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1431,7 +1430,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C10" s="1">
         <v>7</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -1509,7 +1508,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C13" s="1">
         <v>9</v>
       </c>
@@ -1541,7 +1540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C14" s="1">
         <v>10</v>
       </c>
@@ -1573,7 +1572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
       <c r="C15" s="1">
         <v>11</v>
       </c>
@@ -1637,7 +1636,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C17" s="1">
         <v>13</v>
       </c>
@@ -1665,7 +1664,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1679,7 +1678,7 @@
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
     </row>
-    <row r="19" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C19" s="1">
         <v>14</v>
       </c>
@@ -1711,7 +1710,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C20" s="1">
         <v>15</v>
       </c>
@@ -1743,7 +1742,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C21" s="1">
         <v>16</v>
       </c>
@@ -1775,7 +1774,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C22" s="1">
         <v>17</v>
       </c>
@@ -1807,7 +1806,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C23" s="1">
         <v>18</v>
       </c>
@@ -1839,7 +1838,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C24" s="1">
         <v>19</v>
       </c>
@@ -1867,7 +1866,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C25" s="1">
         <v>20</v>
       </c>
@@ -1895,7 +1894,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C26" s="1">
         <v>21</v>
       </c>
@@ -1923,7 +1922,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="27" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1937,7 +1936,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C28" s="1">
         <v>22</v>
       </c>
@@ -1971,7 +1970,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C29" s="1">
         <v>23</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C30" s="1">
         <v>24</v>
       </c>
@@ -2045,7 +2044,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C31" s="1">
         <v>25</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C32" s="1">
         <v>26</v>
       </c>
@@ -2119,7 +2118,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C33" s="1">
         <v>27</v>
       </c>
@@ -2224,7 +2223,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="36" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C36" s="1">
         <v>30</v>
       </c>
@@ -2258,7 +2257,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="37" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C37" s="1">
         <v>31</v>
       </c>
@@ -2292,7 +2291,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C38" s="1">
         <v>32</v>
       </c>
@@ -2329,7 +2328,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="39" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -2343,7 +2342,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C40" s="1">
         <v>34</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -2389,7 +2388,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
@@ -2403,7 +2402,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
@@ -2417,7 +2416,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C44" s="1">
         <v>35</v>
       </c>
@@ -2452,7 +2451,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="45" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C45" s="1">
         <v>36</v>
       </c>
@@ -2484,7 +2483,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="46" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C46" s="1">
         <v>37</v>
       </c>
@@ -2519,7 +2518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="47" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C47" s="1">
         <v>38</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="3:15" hidden="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="3:15" x14ac:dyDescent="0.4">
       <c r="C48" s="1">
         <v>39</v>
       </c>
@@ -2589,7 +2588,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C49" s="1">
         <v>40</v>
       </c>
@@ -2685,7 +2684,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C52" s="1">
         <v>43</v>
       </c>
@@ -2717,7 +2716,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="53" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C53" s="1">
         <v>44</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C54" s="1">
         <v>45</v>
       </c>
@@ -2815,7 +2814,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C56" s="1">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -2832,7 +2831,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C57" s="1">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -2849,7 +2848,7 @@
       <c r="M57" s="1"/>
       <c r="N57" s="1"/>
     </row>
-    <row r="58" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C58" s="1">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -2866,7 +2865,7 @@
       <c r="M58" s="1"/>
       <c r="N58" s="1"/>
     </row>
-    <row r="59" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C59" s="1">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -2883,7 +2882,7 @@
       <c r="M59" s="1"/>
       <c r="N59" s="1"/>
     </row>
-    <row r="60" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C60" s="1">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -2900,7 +2899,7 @@
       <c r="M60" s="1"/>
       <c r="N60" s="1"/>
     </row>
-    <row r="61" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C61" s="1">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -2917,7 +2916,7 @@
       <c r="M61" s="1"/>
       <c r="N61" s="1"/>
     </row>
-    <row r="62" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C62" s="1">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -2934,7 +2933,7 @@
       <c r="M62" s="1"/>
       <c r="N62" s="1"/>
     </row>
-    <row r="63" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C63" s="1">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -2951,7 +2950,7 @@
       <c r="M63" s="1"/>
       <c r="N63" s="1"/>
     </row>
-    <row r="64" spans="3:14" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="3:14" x14ac:dyDescent="0.4">
       <c r="C64" s="1">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -2969,13 +2968,7 @@
       <c r="N64" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}">
-    <filterColumn colId="11">
-      <filters>
-        <filter val="梶川"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C2:N64" xr:uid="{E03B5C93-7580-462C-846E-315461EE1FB8}"/>
   <phoneticPr fontId="1"/>
   <dataValidations count="1">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="M3:M64" xr:uid="{65E47EFC-9CE3-4220-A319-C8241164C1FC}">
@@ -2988,6 +2981,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100157231BE4AEE574CA53F7F6406B00885" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="dc5b9a23ce3d52c4956bed0e463d1dda">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="f11e5c67-cf10-45fe-9586-3550a4dd026c" xmlns:ns4="01c64581-d9a7-4bf3-8493-a30fa4f21230" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c0a2f94ac7d166380f87837b42de16b" ns3:_="" ns4:_="">
     <xsd:import namespace="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
@@ -3158,12 +3157,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -3174,6 +3167,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
+    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A480FB52-0471-4E93-ADEA-9D5C32C7BB5B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3192,23 +3202,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2CD51129-CE6F-45E1-BB00-4EFAA7AA477C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="01c64581-d9a7-4bf3-8493-a30fa4f21230"/>
-    <ds:schemaRef ds:uri="f11e5c67-cf10-45fe-9586-3550a4dd026c"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39FADF03-5109-4CCE-A5D7-74DA56792023}">
   <ds:schemaRefs>
